--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H2">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N2">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O2">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P2">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q2">
-        <v>12.57514448436622</v>
+        <v>8.522196328817778</v>
       </c>
       <c r="R2">
-        <v>113.176300359296</v>
+        <v>76.69976695936001</v>
       </c>
       <c r="S2">
-        <v>0.0002329082713588773</v>
+        <v>8.147523352696493E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002329082713588773</v>
+        <v>8.147523352696491E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H3">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.015866</v>
       </c>
       <c r="O3">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P3">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q3">
-        <v>47.54001939467733</v>
+        <v>59.30605698312534</v>
       </c>
       <c r="R3">
-        <v>427.8601745520959</v>
+        <v>533.754512848128</v>
       </c>
       <c r="S3">
-        <v>0.0008805038980941652</v>
+        <v>0.0005669870366544266</v>
       </c>
       <c r="T3">
-        <v>0.0008805038980941652</v>
+        <v>0.0005669870366544265</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H4">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N4">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O4">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P4">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q4">
-        <v>162.3126608855022</v>
+        <v>468.9426759520427</v>
       </c>
       <c r="R4">
-        <v>1460.81394796952</v>
+        <v>4220.484083568384</v>
       </c>
       <c r="S4">
-        <v>0.003006244684782823</v>
+        <v>0.004483259075451588</v>
       </c>
       <c r="T4">
-        <v>0.003006244684782823</v>
+        <v>0.004483259075451588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H5">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N5">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O5">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P5">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q5">
-        <v>3.360539140661333</v>
+        <v>5.744800736227555</v>
       </c>
       <c r="R5">
-        <v>30.244852265952</v>
+        <v>51.703206626048</v>
       </c>
       <c r="S5">
-        <v>6.224161981266695E-05</v>
+        <v>5.492234202200672E-05</v>
       </c>
       <c r="T5">
-        <v>6.224161981266696E-05</v>
+        <v>5.492234202200671E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J6">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N6">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O6">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P6">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q6">
-        <v>2975.427517157181</v>
+        <v>1616.397724759542</v>
       </c>
       <c r="R6">
-        <v>26778.84765441463</v>
+        <v>14547.57952283588</v>
       </c>
       <c r="S6">
-        <v>0.05510884431079696</v>
+        <v>0.01545333820248984</v>
       </c>
       <c r="T6">
-        <v>0.05510884431079696</v>
+        <v>0.01545333820248984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J7">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.015866</v>
       </c>
       <c r="O7">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P7">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q7">
         <v>11248.5293547892</v>
@@ -883,10 +883,10 @@
         <v>101236.7641931028</v>
       </c>
       <c r="S7">
-        <v>0.2083376084156047</v>
+        <v>0.1075399487004668</v>
       </c>
       <c r="T7">
-        <v>0.2083376084156047</v>
+        <v>0.1075399487004668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J8">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N8">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O8">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P8">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q8">
-        <v>38405.09015082427</v>
+        <v>88943.95824798895</v>
       </c>
       <c r="R8">
-        <v>345645.8113574184</v>
+        <v>800495.6242319006</v>
       </c>
       <c r="S8">
-        <v>0.7113129530663314</v>
+        <v>0.8503359333042733</v>
       </c>
       <c r="T8">
-        <v>0.7113129530663314</v>
+        <v>0.8503359333042732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J9">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N9">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O9">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P9">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q9">
-        <v>795.1432004648987</v>
+        <v>1089.61146645202</v>
       </c>
       <c r="R9">
-        <v>7156.288804184088</v>
+        <v>9806.503198068183</v>
       </c>
       <c r="S9">
-        <v>0.0147271014287975</v>
+        <v>0.01041707386893214</v>
       </c>
       <c r="T9">
-        <v>0.0147271014287975</v>
+        <v>0.01041707386893214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H10">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N10">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O10">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P10">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q10">
-        <v>17.37219171232178</v>
+        <v>17.23063436615111</v>
       </c>
       <c r="R10">
-        <v>156.349725410896</v>
+        <v>155.07570929536</v>
       </c>
       <c r="S10">
-        <v>0.0003217559167182644</v>
+        <v>0.0001647310041488633</v>
       </c>
       <c r="T10">
-        <v>0.0003217559167182644</v>
+        <v>0.0001647310041488633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H11">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.015866</v>
       </c>
       <c r="O11">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P11">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q11">
-        <v>65.67513653291066</v>
+        <v>119.9081720423253</v>
       </c>
       <c r="R11">
-        <v>591.0762287961959</v>
+        <v>1079.173548380928</v>
       </c>
       <c r="S11">
-        <v>0.001216390200538471</v>
+        <v>0.0011463648503267</v>
       </c>
       <c r="T11">
-        <v>0.001216390200538471</v>
+        <v>0.001146364850326699</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H12">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N12">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O12">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P12">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q12">
-        <v>224.2301601978078</v>
+        <v>948.1334947296427</v>
       </c>
       <c r="R12">
-        <v>2018.07144178027</v>
+        <v>8533.201452566784</v>
       </c>
       <c r="S12">
-        <v>0.004153038485014882</v>
+        <v>0.009064494047927106</v>
       </c>
       <c r="T12">
-        <v>0.004153038485014882</v>
+        <v>0.009064494047927106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H13">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N13">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O13">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P13">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q13">
-        <v>4.642485840294666</v>
+        <v>11.61514675009422</v>
       </c>
       <c r="R13">
-        <v>41.78237256265199</v>
+        <v>104.536320750848</v>
       </c>
       <c r="S13">
-        <v>8.5984964484135E-05</v>
+        <v>0.0001110449416324552</v>
       </c>
       <c r="T13">
-        <v>8.598496448413501E-05</v>
+        <v>0.0001110449416324552</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H14">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N14">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O14">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P14">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q14">
-        <v>1.667178489653333</v>
+        <v>0.9537027195988889</v>
       </c>
       <c r="R14">
-        <v>15.00460640688</v>
+        <v>8.583324476390001</v>
       </c>
       <c r="S14">
-        <v>3.087834581579616E-05</v>
+        <v>9.117737822099693E-06</v>
       </c>
       <c r="T14">
-        <v>3.087834581579616E-05</v>
+        <v>9.117737822099691E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H15">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.015866</v>
       </c>
       <c r="O15">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P15">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q15">
-        <v>6.30272660732</v>
+        <v>6.636827603024666</v>
       </c>
       <c r="R15">
-        <v>56.72453946588001</v>
+        <v>59.731448427222</v>
       </c>
       <c r="S15">
-        <v>0.0001167348145210983</v>
+        <v>6.345043671502156E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001167348145210983</v>
+        <v>6.345043671502154E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H16">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N16">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O16">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P16">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q16">
-        <v>21.51897158423333</v>
+        <v>52.47847950640734</v>
       </c>
       <c r="R16">
-        <v>193.6707442581</v>
+        <v>472.306315557666</v>
       </c>
       <c r="S16">
-        <v>0.0003985597524812206</v>
+        <v>0.0005017129631790254</v>
       </c>
       <c r="T16">
-        <v>0.0003985597524812206</v>
+        <v>0.0005017129631790254</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H17">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N17">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O17">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P17">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q17">
-        <v>0.44553114884</v>
+        <v>0.6428896817557777</v>
       </c>
       <c r="R17">
-        <v>4.009780339560001</v>
+        <v>5.786007135802</v>
       </c>
       <c r="S17">
-        <v>8.251824847171043E-06</v>
+        <v>6.146254431619552E-06</v>
       </c>
       <c r="T17">
-        <v>8.251824847171043E-06</v>
+        <v>6.146254431619551E-06</v>
       </c>
     </row>
   </sheetData>
